--- a/Shablon/AKIP-4131-1A.xlsx
+++ b/Shablon/AKIP-4131-1A.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="363">
   <si>
     <t>Параметр</t>
   </si>
@@ -1615,23 +1615,6 @@
   </si>
   <si>
     <t>tr4_9</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Протокол № </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>10/21-11-2022/</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -1888,7 +1871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2025,10 +2008,110 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2037,20 +2120,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2065,169 +2148,68 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2564,7 +2546,7 @@
   <dimension ref="A1:S146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:I8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2582,17 +2564,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -2622,19 +2604,18 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
-        <v>363</v>
+      <c r="A3" s="91" t="str">
+        <f>"Протокол периодической поверки №10/"&amp;H113&amp;"/"&amp;H5</f>
+        <v>Протокол периодической поверки №10/_date/_type</v>
       </c>
       <c r="B3" s="91"/>
       <c r="C3" s="91"/>
       <c r="D3" s="91"/>
       <c r="E3" s="91"/>
-      <c r="F3" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -2668,18 +2649,18 @@
       <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="33" t="s">
         <v>118</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="89" t="s">
+      <c r="H5" s="43" t="s">
         <v>119</v>
       </c>
       <c r="I5" s="35"/>
@@ -2688,12 +2669,12 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="90" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="44" t="s">
         <v>120</v>
       </c>
       <c r="E6" s="34"/>
@@ -2706,48 +2687,48 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65">
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="80">
         <v>2022</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="67"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="90" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="44" t="s">
         <v>121</v>
       </c>
       <c r="E9" s="34"/>
@@ -2760,37 +2741,37 @@
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="68" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="71" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="88"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
@@ -2849,19 +2830,19 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="47" t="s">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="54" t="s">
+      <c r="E15" s="75"/>
+      <c r="F15" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="54"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2872,19 +2853,19 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="88" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="88"/>
-      <c r="F16" s="56" t="s">
+      <c r="E16" s="77"/>
+      <c r="F16" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="61"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2895,19 +2876,19 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="88" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="56" t="s">
+      <c r="E17" s="77"/>
+      <c r="F17" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="61"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2918,19 +2899,19 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="88" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="56" t="s">
+      <c r="E18" s="77"/>
+      <c r="F18" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="61"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -3138,23 +3119,23 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="47" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="43" t="s">
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="44"/>
+      <c r="I30" s="49"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3163,9 +3144,9 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="22" t="s">
         <v>10</v>
       </c>
@@ -3178,8 +3159,8 @@
       <c r="G31" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="45"/>
-      <c r="I31" s="46"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="53"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3188,29 +3169,29 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="87" t="s">
+      <c r="C32" s="62"/>
+      <c r="D32" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="87" t="s">
+      <c r="E32" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="87" t="s">
+      <c r="G32" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="H32" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="I32" s="40"/>
+      <c r="I32" s="45"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3219,25 +3200,25 @@
       <c r="O32" s="3"/>
     </row>
     <row r="33" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="50" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="87" t="s">
+      <c r="C33" s="62"/>
+      <c r="D33" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="87" t="s">
+      <c r="E33" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="87" t="s">
+      <c r="F33" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="45"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3246,29 +3227,29 @@
       <c r="O33" s="3"/>
     </row>
     <row r="34" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="87" t="s">
+      <c r="C34" s="62"/>
+      <c r="D34" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="87" t="s">
+      <c r="E34" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="87" t="s">
+      <c r="F34" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="G34" s="87" t="s">
+      <c r="G34" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="H34" s="40" t="s">
+      <c r="H34" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="40"/>
+      <c r="I34" s="45"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3277,25 +3258,25 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="50" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="87" t="s">
+      <c r="C35" s="62"/>
+      <c r="D35" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="87" t="s">
+      <c r="E35" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="F35" s="87" t="s">
+      <c r="F35" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="87" t="s">
+      <c r="G35" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3304,29 +3285,29 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
+      <c r="A36" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="87" t="s">
+      <c r="C36" s="62"/>
+      <c r="D36" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E36" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="87" t="s">
+      <c r="F36" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="G36" s="87" t="s">
+      <c r="G36" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="I36" s="40"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3335,25 +3316,25 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="87" t="s">
+      <c r="C37" s="62"/>
+      <c r="D37" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E37" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="G37" s="87" t="s">
+      <c r="G37" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3362,29 +3343,29 @@
       <c r="O37" s="3"/>
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="87" t="s">
+      <c r="C38" s="62"/>
+      <c r="D38" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="87" t="s">
+      <c r="E38" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="F38" s="87" t="s">
+      <c r="F38" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="G38" s="87" t="s">
+      <c r="G38" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H38" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="40"/>
+      <c r="I38" s="45"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3393,25 +3374,25 @@
       <c r="O38" s="3"/>
     </row>
     <row r="39" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="40"/>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="87" t="s">
+      <c r="C39" s="62"/>
+      <c r="D39" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="87" t="s">
+      <c r="E39" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="F39" s="87" t="s">
+      <c r="F39" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="G39" s="87" t="s">
+      <c r="G39" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -3420,29 +3401,29 @@
       <c r="O39" s="3"/>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="87" t="s">
+      <c r="C40" s="62"/>
+      <c r="D40" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="F40" s="87" t="s">
+      <c r="F40" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="87" t="s">
+      <c r="G40" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="I40" s="40"/>
+      <c r="I40" s="45"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3451,25 +3432,25 @@
       <c r="O40" s="3"/>
     </row>
     <row r="41" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="45"/>
+      <c r="B41" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="87" t="s">
+      <c r="C41" s="62"/>
+      <c r="D41" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="87" t="s">
+      <c r="E41" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="F41" s="87" t="s">
+      <c r="F41" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="G41" s="87" t="s">
+      <c r="G41" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3478,29 +3459,29 @@
       <c r="O41" s="3"/>
     </row>
     <row r="42" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="87" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="87" t="s">
+      <c r="E42" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="87" t="s">
+      <c r="F42" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="G42" s="87" t="s">
+      <c r="G42" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="40"/>
+      <c r="I42" s="45"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3509,25 +3490,25 @@
       <c r="O42" s="3"/>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="58" t="s">
+      <c r="A43" s="45"/>
+      <c r="B43" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="87" t="s">
+      <c r="C43" s="66"/>
+      <c r="D43" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="E43" s="87" t="s">
+      <c r="E43" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F43" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="87" t="s">
+      <c r="G43" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3536,29 +3517,29 @@
       <c r="O43" s="3"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="87" t="s">
+      <c r="C44" s="62"/>
+      <c r="D44" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="E44" s="87" t="s">
+      <c r="E44" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="87" t="s">
+      <c r="F44" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="G44" s="87" t="s">
+      <c r="G44" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="40"/>
+      <c r="I44" s="45"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -3567,25 +3548,25 @@
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
-      <c r="B45" s="58" t="s">
+      <c r="A45" s="45"/>
+      <c r="B45" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="87" t="s">
+      <c r="C45" s="66"/>
+      <c r="D45" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="87" t="s">
+      <c r="E45" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="87" t="s">
+      <c r="F45" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="G45" s="87" t="s">
+      <c r="G45" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
@@ -3594,29 +3575,29 @@
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="87" t="s">
+      <c r="C46" s="62"/>
+      <c r="D46" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E46" s="87" t="s">
+      <c r="E46" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="87" t="s">
+      <c r="F46" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G46" s="87" t="s">
+      <c r="G46" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="I46" s="40"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -3625,25 +3606,25 @@
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="50" t="s">
+      <c r="A47" s="45"/>
+      <c r="B47" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="87" t="s">
+      <c r="C47" s="62"/>
+      <c r="D47" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="87" t="s">
+      <c r="E47" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="F47" s="87" t="s">
+      <c r="F47" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="G47" s="87" t="s">
+      <c r="G47" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
@@ -3652,29 +3633,29 @@
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="87" t="s">
+      <c r="C48" s="62"/>
+      <c r="D48" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="87" t="s">
+      <c r="E48" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="87" t="s">
+      <c r="F48" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="G48" s="87" t="s">
+      <c r="G48" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="40"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -3683,25 +3664,25 @@
       <c r="O48" s="3"/>
     </row>
     <row r="49" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="52" t="s">
+      <c r="A49" s="45"/>
+      <c r="B49" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="87" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="E49" s="87" t="s">
+      <c r="E49" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="F49" s="87" t="s">
+      <c r="F49" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="G49" s="87" t="s">
+      <c r="G49" s="42" t="s">
         <v>220</v>
       </c>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
@@ -3710,29 +3691,29 @@
       <c r="O49" s="3"/>
     </row>
     <row r="50" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
+      <c r="A50" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="87" t="s">
+      <c r="C50" s="62"/>
+      <c r="D50" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="E50" s="87" t="s">
+      <c r="E50" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="F50" s="87" t="s">
+      <c r="F50" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="G50" s="87" t="s">
+      <c r="G50" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="H50" s="40" t="s">
+      <c r="H50" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="I50" s="40"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -3741,25 +3722,25 @@
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="52" t="s">
+      <c r="A51" s="45"/>
+      <c r="B51" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="87" t="s">
+      <c r="C51" s="64"/>
+      <c r="D51" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="87" t="s">
+      <c r="E51" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="F51" s="87" t="s">
+      <c r="F51" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="G51" s="87" t="s">
+      <c r="G51" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
@@ -3768,29 +3749,29 @@
       <c r="O51" s="3"/>
     </row>
     <row r="52" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="40" t="s">
+      <c r="A52" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="87" t="s">
+      <c r="C52" s="62"/>
+      <c r="D52" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E52" s="87" t="s">
+      <c r="E52" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="F52" s="87" t="s">
+      <c r="F52" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="G52" s="87" t="s">
+      <c r="G52" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3799,25 +3780,25 @@
       <c r="O52" s="3"/>
     </row>
     <row r="53" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
-      <c r="B53" s="52" t="s">
+      <c r="A53" s="45"/>
+      <c r="B53" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="87" t="s">
+      <c r="C53" s="64"/>
+      <c r="D53" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="E53" s="87" t="s">
+      <c r="E53" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="F53" s="87" t="s">
+      <c r="F53" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="G53" s="87" t="s">
+      <c r="G53" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3826,29 +3807,29 @@
       <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="87" t="s">
+      <c r="C54" s="62"/>
+      <c r="D54" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="E54" s="87" t="s">
+      <c r="E54" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="87" t="s">
+      <c r="F54" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="G54" s="87" t="s">
+      <c r="G54" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="H54" s="40" t="s">
+      <c r="H54" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="I54" s="40"/>
+      <c r="I54" s="45"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -3857,25 +3838,25 @@
       <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="52" t="s">
+      <c r="A55" s="45"/>
+      <c r="B55" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="87" t="s">
+      <c r="C55" s="64"/>
+      <c r="D55" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E55" s="87" t="s">
+      <c r="E55" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="87" t="s">
+      <c r="F55" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="87" t="s">
+      <c r="G55" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
@@ -3901,17 +3882,17 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3937,23 +3918,23 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="41" t="s">
+      <c r="A59" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="47" t="s">
+      <c r="C59" s="49"/>
+      <c r="D59" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="43" t="s">
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="I59" s="44"/>
+      <c r="I59" s="49"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3962,9 +3943,9 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="42"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="46"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="22" t="s">
         <v>10</v>
       </c>
@@ -3977,8 +3958,8 @@
       <c r="G60" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="45"/>
-      <c r="I60" s="46"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="53"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3987,29 +3968,29 @@
       <c r="O60" s="3"/>
     </row>
     <row r="61" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="87" t="s">
+      <c r="C61" s="62"/>
+      <c r="D61" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="87" t="s">
+      <c r="E61" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="F61" s="87" t="s">
+      <c r="F61" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="G61" s="87" t="s">
+      <c r="G61" s="42" t="s">
         <v>230</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="I61" s="40"/>
+      <c r="I61" s="45"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
@@ -4018,25 +3999,25 @@
       <c r="O61" s="3"/>
     </row>
     <row r="62" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="40"/>
-      <c r="B62" s="50" t="s">
+      <c r="A62" s="45"/>
+      <c r="B62" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="51"/>
-      <c r="D62" s="87" t="s">
+      <c r="C62" s="62"/>
+      <c r="D62" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="87" t="s">
+      <c r="E62" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="87" t="s">
+      <c r="G62" s="42" t="s">
         <v>270</v>
       </c>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -4045,29 +4026,29 @@
       <c r="O62" s="3"/>
     </row>
     <row r="63" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="50" t="s">
+      <c r="B63" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="51"/>
-      <c r="D63" s="87" t="s">
+      <c r="C63" s="62"/>
+      <c r="D63" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="87" t="s">
+      <c r="E63" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="F63" s="87" t="s">
+      <c r="F63" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="G63" s="87" t="s">
+      <c r="G63" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="I63" s="40"/>
+      <c r="I63" s="45"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
@@ -4076,25 +4057,25 @@
       <c r="O63" s="3"/>
     </row>
     <row r="64" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
-      <c r="B64" s="50" t="s">
+      <c r="A64" s="45"/>
+      <c r="B64" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="87" t="s">
+      <c r="C64" s="62"/>
+      <c r="D64" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="E64" s="87" t="s">
+      <c r="E64" s="42" t="s">
         <v>246</v>
       </c>
-      <c r="F64" s="87" t="s">
+      <c r="F64" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="G64" s="87" t="s">
+      <c r="G64" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
@@ -4103,29 +4084,29 @@
       <c r="O64" s="3"/>
     </row>
     <row r="65" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="87" t="s">
+      <c r="C65" s="62"/>
+      <c r="D65" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="87" t="s">
+      <c r="E65" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="F65" s="87" t="s">
+      <c r="F65" s="42" t="s">
         <v>260</v>
       </c>
-      <c r="G65" s="87" t="s">
+      <c r="G65" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="H65" s="40" t="s">
+      <c r="H65" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="I65" s="40"/>
+      <c r="I65" s="45"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4134,25 +4115,25 @@
       <c r="O65" s="3"/>
     </row>
     <row r="66" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="40"/>
-      <c r="B66" s="58" t="s">
+      <c r="A66" s="45"/>
+      <c r="B66" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="87" t="s">
+      <c r="C66" s="66"/>
+      <c r="D66" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="E66" s="87" t="s">
+      <c r="E66" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="F66" s="87" t="s">
+      <c r="F66" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="G66" s="87" t="s">
+      <c r="G66" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -4161,29 +4142,29 @@
       <c r="O66" s="3"/>
     </row>
     <row r="67" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="87" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="E67" s="87" t="s">
+      <c r="E67" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="F67" s="87" t="s">
+      <c r="F67" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="G67" s="87" t="s">
+      <c r="G67" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="H67" s="40" t="s">
+      <c r="H67" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="I67" s="40"/>
+      <c r="I67" s="45"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4192,25 +4173,25 @@
       <c r="O67" s="3"/>
     </row>
     <row r="68" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="40"/>
-      <c r="B68" s="58" t="s">
+      <c r="A68" s="45"/>
+      <c r="B68" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="87" t="s">
+      <c r="C68" s="66"/>
+      <c r="D68" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="E68" s="87" t="s">
+      <c r="E68" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="F68" s="87" t="s">
+      <c r="F68" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="G68" s="87" t="s">
+      <c r="G68" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="H68" s="40"/>
-      <c r="I68" s="40"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
@@ -4219,29 +4200,29 @@
       <c r="O68" s="3"/>
     </row>
     <row r="69" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="40" t="s">
+      <c r="A69" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="87" t="s">
+      <c r="C69" s="62"/>
+      <c r="D69" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="87" t="s">
+      <c r="E69" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="F69" s="87" t="s">
+      <c r="F69" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="G69" s="87" t="s">
+      <c r="G69" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="H69" s="40" t="s">
+      <c r="H69" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="I69" s="40"/>
+      <c r="I69" s="45"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -4250,25 +4231,25 @@
       <c r="O69" s="3"/>
     </row>
     <row r="70" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="40"/>
-      <c r="B70" s="52" t="s">
+      <c r="A70" s="45"/>
+      <c r="B70" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="87" t="s">
+      <c r="C70" s="64"/>
+      <c r="D70" s="42" t="s">
         <v>239</v>
       </c>
-      <c r="E70" s="87" t="s">
+      <c r="E70" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="F70" s="87" t="s">
+      <c r="F70" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="G70" s="87" t="s">
+      <c r="G70" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="H70" s="40"/>
-      <c r="I70" s="40"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
@@ -4277,29 +4258,29 @@
       <c r="O70" s="3"/>
     </row>
     <row r="71" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="40" t="s">
+      <c r="A71" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="87" t="s">
+      <c r="C71" s="62"/>
+      <c r="D71" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="87" t="s">
+      <c r="E71" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="F71" s="87" t="s">
+      <c r="F71" s="42" t="s">
         <v>266</v>
       </c>
-      <c r="G71" s="87" t="s">
+      <c r="G71" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="H71" s="40" t="s">
+      <c r="H71" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="I71" s="40"/>
+      <c r="I71" s="45"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
@@ -4308,25 +4289,25 @@
       <c r="O71" s="3"/>
     </row>
     <row r="72" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="40"/>
-      <c r="B72" s="52" t="s">
+      <c r="A72" s="45"/>
+      <c r="B72" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="87" t="s">
+      <c r="C72" s="64"/>
+      <c r="D72" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="E72" s="87" t="s">
+      <c r="E72" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="F72" s="87" t="s">
+      <c r="F72" s="42" t="s">
         <v>267</v>
       </c>
-      <c r="G72" s="87" t="s">
+      <c r="G72" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
@@ -4335,29 +4316,29 @@
       <c r="O72" s="3"/>
     </row>
     <row r="73" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="87" t="s">
+      <c r="C73" s="62"/>
+      <c r="D73" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="E73" s="87" t="s">
+      <c r="E73" s="42" t="s">
         <v>255</v>
       </c>
-      <c r="F73" s="87" t="s">
+      <c r="F73" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="G73" s="87" t="s">
+      <c r="G73" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="H73" s="40" t="s">
+      <c r="H73" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="I73" s="40"/>
+      <c r="I73" s="45"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4366,25 +4347,25 @@
       <c r="O73" s="3"/>
     </row>
     <row r="74" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="40"/>
-      <c r="B74" s="52" t="s">
+      <c r="A74" s="45"/>
+      <c r="B74" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="87" t="s">
+      <c r="C74" s="64"/>
+      <c r="D74" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="E74" s="87" t="s">
+      <c r="E74" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="F74" s="87" t="s">
+      <c r="F74" s="42" t="s">
         <v>269</v>
       </c>
-      <c r="G74" s="87" t="s">
+      <c r="G74" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="40"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -4428,24 +4409,24 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:15" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="54" t="s">
+      <c r="B78" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54" t="s">
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="69"/>
+      <c r="F78" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="54"/>
+      <c r="G78" s="69"/>
       <c r="H78" s="30"/>
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:15" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="42"/>
+      <c r="A79" s="68"/>
       <c r="B79" s="22" t="s">
         <v>10</v>
       </c>
@@ -4458,8 +4439,8 @@
       <c r="E79" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="54"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="69"/>
       <c r="H79" s="30"/>
       <c r="I79" s="12"/>
     </row>
@@ -4467,22 +4448,22 @@
       <c r="A80" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="86" t="s">
+      <c r="B80" s="41" t="s">
         <v>283</v>
       </c>
-      <c r="C80" s="86" t="s">
+      <c r="C80" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="D80" s="86" t="s">
+      <c r="D80" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="E80" s="86" t="s">
+      <c r="E80" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="F80" s="43">
+      <c r="F80" s="48">
         <v>100</v>
       </c>
-      <c r="G80" s="44"/>
+      <c r="G80" s="49"/>
       <c r="H80" s="30"/>
       <c r="I80" s="12"/>
     </row>
@@ -4490,20 +4471,20 @@
       <c r="A81" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="86" t="s">
+      <c r="B81" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="D81" s="86" t="s">
+      <c r="D81" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="E81" s="86" t="s">
+      <c r="E81" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="F81" s="75"/>
-      <c r="G81" s="76"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="51"/>
       <c r="H81" s="30"/>
       <c r="I81" s="12"/>
     </row>
@@ -4511,20 +4492,20 @@
       <c r="A82" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B82" s="86" t="s">
+      <c r="B82" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="C82" s="86" t="s">
+      <c r="C82" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="D82" s="86" t="s">
+      <c r="D82" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="E82" s="86" t="s">
+      <c r="E82" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="F82" s="75"/>
-      <c r="G82" s="76"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="51"/>
       <c r="H82" s="30"/>
       <c r="I82" s="12"/>
     </row>
@@ -4532,20 +4513,20 @@
       <c r="A83" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="86" t="s">
+      <c r="B83" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="41" t="s">
         <v>299</v>
       </c>
-      <c r="D83" s="86" t="s">
+      <c r="D83" s="41" t="s">
         <v>309</v>
       </c>
-      <c r="E83" s="86" t="s">
+      <c r="E83" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="F83" s="75"/>
-      <c r="G83" s="76"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="51"/>
       <c r="H83" s="28"/>
       <c r="I83" s="12"/>
     </row>
@@ -4553,20 +4534,20 @@
       <c r="A84" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="86" t="s">
+      <c r="B84" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="C84" s="86" t="s">
+      <c r="C84" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="D84" s="86" t="s">
+      <c r="D84" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="E84" s="86" t="s">
+      <c r="E84" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="F84" s="75"/>
-      <c r="G84" s="76"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="51"/>
       <c r="H84" s="28"/>
       <c r="I84" s="12"/>
     </row>
@@ -4574,20 +4555,20 @@
       <c r="A85" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="86" t="s">
+      <c r="B85" s="41" t="s">
         <v>291</v>
       </c>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="41" t="s">
         <v>301</v>
       </c>
-      <c r="D85" s="86" t="s">
+      <c r="D85" s="41" t="s">
         <v>311</v>
       </c>
-      <c r="E85" s="86" t="s">
+      <c r="E85" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="F85" s="75"/>
-      <c r="G85" s="76"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="51"/>
       <c r="H85" s="28"/>
       <c r="I85" s="12"/>
     </row>
@@ -4595,20 +4576,20 @@
       <c r="A86" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="86" t="s">
+      <c r="B86" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="C86" s="86" t="s">
+      <c r="C86" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="D86" s="86" t="s">
+      <c r="D86" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="E86" s="86" t="s">
+      <c r="E86" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="F86" s="75"/>
-      <c r="G86" s="76"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="51"/>
       <c r="H86" s="28"/>
       <c r="I86" s="12"/>
     </row>
@@ -4616,20 +4597,20 @@
       <c r="A87" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B87" s="86" t="s">
+      <c r="B87" s="41" t="s">
         <v>293</v>
       </c>
-      <c r="C87" s="86" t="s">
+      <c r="C87" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="D87" s="86" t="s">
+      <c r="D87" s="41" t="s">
         <v>313</v>
       </c>
-      <c r="E87" s="86" t="s">
+      <c r="E87" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="F87" s="75"/>
-      <c r="G87" s="76"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="51"/>
       <c r="H87" s="28"/>
       <c r="I87" s="12"/>
     </row>
@@ -4637,20 +4618,20 @@
       <c r="A88" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="86" t="s">
+      <c r="B88" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="D88" s="86" t="s">
+      <c r="D88" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="E88" s="86" t="s">
+      <c r="E88" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="F88" s="75"/>
-      <c r="G88" s="76"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="51"/>
       <c r="H88" s="28"/>
       <c r="I88" s="12"/>
     </row>
@@ -4658,20 +4639,20 @@
       <c r="A89" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="41" t="s">
         <v>295</v>
       </c>
-      <c r="C89" s="86" t="s">
+      <c r="C89" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="D89" s="86" t="s">
+      <c r="D89" s="41" t="s">
         <v>315</v>
       </c>
-      <c r="E89" s="86" t="s">
+      <c r="E89" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="F89" s="75"/>
-      <c r="G89" s="76"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="51"/>
       <c r="H89" s="28"/>
       <c r="I89" s="12"/>
     </row>
@@ -4679,20 +4660,20 @@
       <c r="A90" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B90" s="86" t="s">
+      <c r="B90" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="C90" s="86" t="s">
+      <c r="C90" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="D90" s="86" t="s">
+      <c r="D90" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="E90" s="86" t="s">
+      <c r="E90" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="F90" s="45"/>
-      <c r="G90" s="46"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="53"/>
       <c r="H90" s="28"/>
       <c r="I90" s="12"/>
     </row>
@@ -4750,19 +4731,19 @@
       <c r="O93" s="15"/>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="41" t="s">
+      <c r="A94" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="57"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="54" t="s">
+      <c r="C94" s="90"/>
+      <c r="D94" s="90"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="G94" s="54"/>
+      <c r="G94" s="69"/>
       <c r="H94" s="30"/>
       <c r="I94" s="31"/>
       <c r="J94" s="12"/>
@@ -4773,7 +4754,7 @@
       <c r="O94" s="12"/>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="42"/>
+      <c r="A95" s="68"/>
       <c r="B95" s="13" t="s">
         <v>10</v>
       </c>
@@ -4786,8 +4767,8 @@
       <c r="E95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="54"/>
-      <c r="G95" s="54"/>
+      <c r="F95" s="69"/>
+      <c r="G95" s="69"/>
       <c r="H95" s="30"/>
       <c r="I95" s="23"/>
       <c r="J95" s="12"/>
@@ -4797,22 +4778,22 @@
       <c r="A96" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="85" t="s">
+      <c r="B96" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="C96" s="85" t="s">
+      <c r="C96" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="D96" s="85" t="s">
+      <c r="D96" s="40" t="s">
         <v>329</v>
       </c>
-      <c r="E96" s="85" t="s">
+      <c r="E96" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="F96" s="77">
+      <c r="F96" s="54">
         <v>3.5</v>
       </c>
-      <c r="G96" s="78"/>
+      <c r="G96" s="55"/>
       <c r="H96" s="30"/>
       <c r="I96" s="23"/>
       <c r="J96" s="12"/>
@@ -4822,20 +4803,20 @@
       <c r="A97" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="85" t="s">
+      <c r="B97" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="C97" s="85" t="s">
+      <c r="C97" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="D97" s="85" t="s">
+      <c r="D97" s="40" t="s">
         <v>347</v>
       </c>
-      <c r="E97" s="85" t="s">
+      <c r="E97" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="F97" s="79"/>
-      <c r="G97" s="80"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="57"/>
       <c r="H97" s="30"/>
       <c r="I97" s="23"/>
       <c r="J97" s="12"/>
@@ -4845,20 +4826,20 @@
       <c r="A98" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B98" s="85" t="s">
+      <c r="B98" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="C98" s="85" t="s">
+      <c r="C98" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="D98" s="85" t="s">
+      <c r="D98" s="40" t="s">
         <v>348</v>
       </c>
-      <c r="E98" s="85" t="s">
+      <c r="E98" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="F98" s="79"/>
-      <c r="G98" s="80"/>
+      <c r="F98" s="56"/>
+      <c r="G98" s="57"/>
       <c r="H98" s="30"/>
       <c r="I98" s="23"/>
       <c r="J98" s="12"/>
@@ -4868,20 +4849,20 @@
       <c r="A99" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="85" t="s">
+      <c r="B99" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="C99" s="85" t="s">
+      <c r="C99" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="D99" s="85" t="s">
+      <c r="D99" s="40" t="s">
         <v>349</v>
       </c>
-      <c r="E99" s="85" t="s">
+      <c r="E99" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="F99" s="79"/>
-      <c r="G99" s="80"/>
+      <c r="F99" s="56"/>
+      <c r="G99" s="57"/>
       <c r="H99" s="31"/>
       <c r="I99" s="26"/>
       <c r="J99" s="12"/>
@@ -4891,20 +4872,20 @@
       <c r="A100" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="85" t="s">
+      <c r="B100" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="C100" s="85" t="s">
+      <c r="C100" s="40" t="s">
         <v>342</v>
       </c>
-      <c r="D100" s="85" t="s">
+      <c r="D100" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="E100" s="85" t="s">
+      <c r="E100" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="F100" s="79"/>
-      <c r="G100" s="80"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="57"/>
       <c r="H100" s="31"/>
       <c r="I100" s="26"/>
       <c r="J100" s="12"/>
@@ -4914,20 +4895,20 @@
       <c r="A101" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B101" s="85" t="s">
+      <c r="B101" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="C101" s="85" t="s">
+      <c r="C101" s="40" t="s">
         <v>343</v>
       </c>
-      <c r="D101" s="85" t="s">
+      <c r="D101" s="40" t="s">
         <v>351</v>
       </c>
-      <c r="E101" s="85" t="s">
+      <c r="E101" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="F101" s="79"/>
-      <c r="G101" s="80"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="57"/>
       <c r="H101" s="31"/>
       <c r="I101" s="26"/>
       <c r="J101" s="12"/>
@@ -4937,20 +4918,20 @@
       <c r="A102" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="85" t="s">
+      <c r="B102" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="C102" s="85" t="s">
+      <c r="C102" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="D102" s="85" t="s">
+      <c r="D102" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="E102" s="85" t="s">
+      <c r="E102" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="F102" s="79"/>
-      <c r="G102" s="80"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="31"/>
       <c r="I102" s="26"/>
       <c r="J102" s="12"/>
@@ -4960,20 +4941,20 @@
       <c r="A103" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B103" s="85" t="s">
+      <c r="B103" s="40" t="s">
         <v>337</v>
       </c>
-      <c r="C103" s="85" t="s">
+      <c r="C103" s="40" t="s">
         <v>345</v>
       </c>
-      <c r="D103" s="85" t="s">
+      <c r="D103" s="40" t="s">
         <v>353</v>
       </c>
-      <c r="E103" s="85" t="s">
+      <c r="E103" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="F103" s="79"/>
-      <c r="G103" s="80"/>
+      <c r="F103" s="56"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="31"/>
       <c r="I103" s="26"/>
       <c r="J103" s="12"/>
@@ -4983,20 +4964,20 @@
       <c r="A104" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B104" s="85" t="s">
+      <c r="B104" s="40" t="s">
         <v>338</v>
       </c>
-      <c r="C104" s="85" t="s">
+      <c r="C104" s="40" t="s">
         <v>346</v>
       </c>
-      <c r="D104" s="85" t="s">
+      <c r="D104" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="E104" s="85" t="s">
+      <c r="E104" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="F104" s="81"/>
-      <c r="G104" s="82"/>
+      <c r="F104" s="58"/>
+      <c r="G104" s="59"/>
       <c r="H104" s="31"/>
       <c r="I104" s="26"/>
       <c r="J104" s="12"/>
@@ -5044,28 +5025,28 @@
       <c r="K107" s="12"/>
     </row>
     <row r="108" spans="1:11" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="40" t="s">
+      <c r="A108" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B108" s="40"/>
-      <c r="C108" s="54" t="s">
+      <c r="B108" s="45"/>
+      <c r="C108" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
+      <c r="D108" s="69"/>
+      <c r="E108" s="69"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" spans="1:11" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="55">
+      <c r="A109" s="89">
         <v>94.8</v>
       </c>
-      <c r="B109" s="55"/>
-      <c r="C109" s="40">
+      <c r="B109" s="89"/>
+      <c r="C109" s="45">
         <v>250</v>
       </c>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="45"/>
       <c r="F109" s="15"/>
       <c r="G109" s="15"/>
     </row>
@@ -5111,27 +5092,27 @@
       <c r="K112" s="15"/>
     </row>
     <row r="113" spans="1:15" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="74" t="s">
+      <c r="A113" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="74"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D113" s="84" t="s">
+      <c r="D113" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="84"/>
+      <c r="E113" s="47"/>
       <c r="F113" s="37" t="s">
         <v>128</v>
       </c>
       <c r="G113" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H113" s="84" t="s">
+      <c r="H113" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="I113" s="84"/>
+      <c r="I113" s="47"/>
     </row>
     <row r="114" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="15"/>
@@ -5652,7 +5633,108 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="H46:I47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="H52:I53"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:G79"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="F94:G95"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:C60"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="H71:I72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H54:I55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="H65:I66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="H67:I68"/>
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="D113:E113"/>
@@ -5676,107 +5758,6 @@
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="H73:I74"/>
     <mergeCell ref="B74:C74"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H54:I55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="H65:I66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:G79"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="F94:G95"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="H46:I47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="H52:I53"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:C60"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="B62:C62"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.31496062992125984" top="0.74803149606299213" bottom="0.75181159420289856" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Shablon/AKIP-4131-1A.xlsx
+++ b/Shablon/AKIP-4131-1A.xlsx
@@ -2030,20 +2030,147 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2052,14 +2179,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2088,126 +2207,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2546,7 +2546,7 @@
   <dimension ref="A1:S146"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2564,17 +2564,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -2603,7 +2603,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="91" t="str">
         <f>"Протокол периодической поверки №10/"&amp;H113&amp;"/"&amp;H5</f>
         <v>Протокол периодической поверки №10/_date/_type</v>
@@ -2649,11 +2649,11 @@
       <c r="S4" s="21"/>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
       <c r="D5" s="33" t="s">
         <v>118</v>
       </c>
@@ -2669,11 +2669,11 @@
       <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="44" t="s">
         <v>120</v>
       </c>
@@ -2687,47 +2687,47 @@
       <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="80">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71">
         <v>2022</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="73"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
       <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="80" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="73"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
       <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="44" t="s">
         <v>121</v>
       </c>
@@ -2741,37 +2741,37 @@
       <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="83" t="s">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="86" t="s">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
@@ -2835,14 +2835,14 @@
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
-      <c r="D15" s="73" t="s">
+      <c r="D15" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="69" t="s">
+      <c r="E15" s="64"/>
+      <c r="F15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="69"/>
+      <c r="G15" s="58"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2853,19 +2853,19 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:19" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="77" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="79"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2876,19 +2876,19 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="77" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78" t="s">
+      <c r="E17" s="66"/>
+      <c r="F17" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G17" s="79"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2899,19 +2899,19 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="77" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78" t="s">
+      <c r="E18" s="66"/>
+      <c r="F18" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="79"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -3119,23 +3119,23 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="73" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="48" t="s">
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="I30" s="49"/>
+      <c r="I30" s="53"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3144,9 +3144,9 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="22" t="s">
         <v>10</v>
       </c>
@@ -3159,8 +3159,8 @@
       <c r="G31" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="53"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3172,10 +3172,10 @@
       <c r="A32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="42" t="s">
         <v>131</v>
       </c>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="33" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="45"/>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="62"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="42" t="s">
         <v>135</v>
       </c>
@@ -3230,10 +3230,10 @@
       <c r="A34" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="62"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="42" t="s">
         <v>136</v>
       </c>
@@ -3259,10 +3259,10 @@
     </row>
     <row r="35" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="62"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="42" t="s">
         <v>137</v>
       </c>
@@ -3288,10 +3288,10 @@
       <c r="A36" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="62"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="42" t="s">
         <v>138</v>
       </c>
@@ -3317,10 +3317,10 @@
     </row>
     <row r="37" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="62"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="42" t="s">
         <v>139</v>
       </c>
@@ -3346,10 +3346,10 @@
       <c r="A38" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="62"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="42" t="s">
         <v>140</v>
       </c>
@@ -3375,10 +3375,10 @@
     </row>
     <row r="39" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="42" t="s">
         <v>141</v>
       </c>
@@ -3404,10 +3404,10 @@
       <c r="A40" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="62"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="42" t="s">
         <v>142</v>
       </c>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="41" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="45"/>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="62"/>
+      <c r="C41" s="57"/>
       <c r="D41" s="42" t="s">
         <v>143</v>
       </c>
@@ -3462,10 +3462,10 @@
       <c r="A42" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="62"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="42" t="s">
         <v>144</v>
       </c>
@@ -3491,10 +3491,10 @@
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="66"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="42" t="s">
         <v>145</v>
       </c>
@@ -3520,10 +3520,10 @@
       <c r="A44" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="61" t="s">
+      <c r="B44" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="62"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="42" t="s">
         <v>146</v>
       </c>
@@ -3549,10 +3549,10 @@
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="66"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="42" t="s">
         <v>147</v>
       </c>
@@ -3578,10 +3578,10 @@
       <c r="A46" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="61" t="s">
+      <c r="B46" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="62"/>
+      <c r="C46" s="57"/>
       <c r="D46" s="42" t="s">
         <v>148</v>
       </c>
@@ -3607,10 +3607,10 @@
     </row>
     <row r="47" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
-      <c r="B47" s="61" t="s">
+      <c r="B47" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="62"/>
+      <c r="C47" s="57"/>
       <c r="D47" s="42" t="s">
         <v>149</v>
       </c>
@@ -3636,10 +3636,10 @@
       <c r="A48" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="62"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="42" t="s">
         <v>150</v>
       </c>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="49" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="45"/>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="64"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="42" t="s">
         <v>151</v>
       </c>
@@ -3694,10 +3694,10 @@
       <c r="A50" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="61" t="s">
+      <c r="B50" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="62"/>
+      <c r="C50" s="57"/>
       <c r="D50" s="42" t="s">
         <v>152</v>
       </c>
@@ -3723,10 +3723,10 @@
     </row>
     <row r="51" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="45"/>
-      <c r="B51" s="63" t="s">
+      <c r="B51" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="64"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="42" t="s">
         <v>153</v>
       </c>
@@ -3752,10 +3752,10 @@
       <c r="A52" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="62"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="42" t="s">
         <v>154</v>
       </c>
@@ -3781,10 +3781,10 @@
     </row>
     <row r="53" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="45"/>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="64"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="42" t="s">
         <v>155</v>
       </c>
@@ -3810,10 +3810,10 @@
       <c r="A54" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="61" t="s">
+      <c r="B54" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C54" s="62"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="42" t="s">
         <v>156</v>
       </c>
@@ -3839,10 +3839,10 @@
     </row>
     <row r="55" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="45"/>
-      <c r="B55" s="63" t="s">
+      <c r="B55" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="64"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="42" t="s">
         <v>157</v>
       </c>
@@ -3882,17 +3882,17 @@
       <c r="O56" s="3"/>
     </row>
     <row r="57" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
@@ -3918,23 +3918,23 @@
       <c r="O58" s="3"/>
     </row>
     <row r="59" spans="1:15" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="73" t="s">
+      <c r="C59" s="53"/>
+      <c r="D59" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="48" t="s">
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="I59" s="49"/>
+      <c r="I59" s="53"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -3943,9 +3943,9 @@
       <c r="O59" s="3"/>
     </row>
     <row r="60" spans="1:15" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="68"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
+      <c r="A60" s="51"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="22" t="s">
         <v>10</v>
       </c>
@@ -3958,8 +3958,8 @@
       <c r="G60" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="53"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="55"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
@@ -3971,10 +3971,10 @@
       <c r="A61" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="61" t="s">
+      <c r="B61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="62"/>
+      <c r="C61" s="57"/>
       <c r="D61" s="42" t="s">
         <v>227</v>
       </c>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="62" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="45"/>
-      <c r="B62" s="61" t="s">
+      <c r="B62" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C62" s="62"/>
+      <c r="C62" s="57"/>
       <c r="D62" s="42" t="s">
         <v>231</v>
       </c>
@@ -4029,10 +4029,10 @@
       <c r="A63" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="61" t="s">
+      <c r="B63" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C63" s="62"/>
+      <c r="C63" s="57"/>
       <c r="D63" s="42" t="s">
         <v>232</v>
       </c>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="64" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="45"/>
-      <c r="B64" s="61" t="s">
+      <c r="B64" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="62"/>
+      <c r="C64" s="57"/>
       <c r="D64" s="42" t="s">
         <v>233</v>
       </c>
@@ -4087,10 +4087,10 @@
       <c r="A65" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="61" t="s">
+      <c r="B65" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C65" s="62"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="42" t="s">
         <v>234</v>
       </c>
@@ -4116,10 +4116,10 @@
     </row>
     <row r="66" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="45"/>
-      <c r="B66" s="65" t="s">
+      <c r="B66" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C66" s="66"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="42" t="s">
         <v>235</v>
       </c>
@@ -4145,10 +4145,10 @@
       <c r="A67" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="62"/>
+      <c r="C67" s="57"/>
       <c r="D67" s="42" t="s">
         <v>236</v>
       </c>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="68" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="45"/>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="66"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="42" t="s">
         <v>237</v>
       </c>
@@ -4203,10 +4203,10 @@
       <c r="A69" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="61" t="s">
+      <c r="B69" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C69" s="62"/>
+      <c r="C69" s="57"/>
       <c r="D69" s="42" t="s">
         <v>238</v>
       </c>
@@ -4232,10 +4232,10 @@
     </row>
     <row r="70" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="45"/>
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="C70" s="64"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="42" t="s">
         <v>239</v>
       </c>
@@ -4261,10 +4261,10 @@
       <c r="A71" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="61" t="s">
+      <c r="B71" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="C71" s="62"/>
+      <c r="C71" s="57"/>
       <c r="D71" s="42" t="s">
         <v>240</v>
       </c>
@@ -4290,10 +4290,10 @@
     </row>
     <row r="72" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="45"/>
-      <c r="B72" s="63" t="s">
+      <c r="B72" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="C72" s="64"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="42" t="s">
         <v>241</v>
       </c>
@@ -4319,10 +4319,10 @@
       <c r="A73" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="61" t="s">
+      <c r="B73" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="62"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="42" t="s">
         <v>242</v>
       </c>
@@ -4348,10 +4348,10 @@
     </row>
     <row r="74" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="45"/>
-      <c r="B74" s="63" t="s">
+      <c r="B74" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="64"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="42" t="s">
         <v>243</v>
       </c>
@@ -4409,24 +4409,24 @@
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:15" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69" t="s">
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G78" s="69"/>
+      <c r="G78" s="58"/>
       <c r="H78" s="30"/>
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:15" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="68"/>
+      <c r="A79" s="51"/>
       <c r="B79" s="22" t="s">
         <v>10</v>
       </c>
@@ -4439,8 +4439,8 @@
       <c r="E79" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="69"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="30"/>
       <c r="I79" s="12"/>
     </row>
@@ -4460,10 +4460,10 @@
       <c r="E80" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="F80" s="48">
+      <c r="F80" s="52">
         <v>100</v>
       </c>
-      <c r="G80" s="49"/>
+      <c r="G80" s="53"/>
       <c r="H80" s="30"/>
       <c r="I80" s="12"/>
     </row>
@@ -4483,8 +4483,8 @@
       <c r="E81" s="41" t="s">
         <v>317</v>
       </c>
-      <c r="F81" s="50"/>
-      <c r="G81" s="51"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="83"/>
       <c r="H81" s="30"/>
       <c r="I81" s="12"/>
     </row>
@@ -4504,8 +4504,8 @@
       <c r="E82" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="51"/>
+      <c r="F82" s="82"/>
+      <c r="G82" s="83"/>
       <c r="H82" s="30"/>
       <c r="I82" s="12"/>
     </row>
@@ -4525,8 +4525,8 @@
       <c r="E83" s="41" t="s">
         <v>319</v>
       </c>
-      <c r="F83" s="50"/>
-      <c r="G83" s="51"/>
+      <c r="F83" s="82"/>
+      <c r="G83" s="83"/>
       <c r="H83" s="28"/>
       <c r="I83" s="12"/>
     </row>
@@ -4546,8 +4546,8 @@
       <c r="E84" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="F84" s="50"/>
-      <c r="G84" s="51"/>
+      <c r="F84" s="82"/>
+      <c r="G84" s="83"/>
       <c r="H84" s="28"/>
       <c r="I84" s="12"/>
     </row>
@@ -4567,8 +4567,8 @@
       <c r="E85" s="41" t="s">
         <v>321</v>
       </c>
-      <c r="F85" s="50"/>
-      <c r="G85" s="51"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="83"/>
       <c r="H85" s="28"/>
       <c r="I85" s="12"/>
     </row>
@@ -4588,8 +4588,8 @@
       <c r="E86" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="F86" s="50"/>
-      <c r="G86" s="51"/>
+      <c r="F86" s="82"/>
+      <c r="G86" s="83"/>
       <c r="H86" s="28"/>
       <c r="I86" s="12"/>
     </row>
@@ -4609,8 +4609,8 @@
       <c r="E87" s="41" t="s">
         <v>323</v>
       </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="51"/>
+      <c r="F87" s="82"/>
+      <c r="G87" s="83"/>
       <c r="H87" s="28"/>
       <c r="I87" s="12"/>
     </row>
@@ -4630,8 +4630,8 @@
       <c r="E88" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="51"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="83"/>
       <c r="H88" s="28"/>
       <c r="I88" s="12"/>
     </row>
@@ -4651,8 +4651,8 @@
       <c r="E89" s="41" t="s">
         <v>325</v>
       </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="51"/>
+      <c r="F89" s="82"/>
+      <c r="G89" s="83"/>
       <c r="H89" s="28"/>
       <c r="I89" s="12"/>
     </row>
@@ -4672,8 +4672,8 @@
       <c r="E90" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="F90" s="52"/>
-      <c r="G90" s="53"/>
+      <c r="F90" s="54"/>
+      <c r="G90" s="55"/>
       <c r="H90" s="28"/>
       <c r="I90" s="12"/>
     </row>
@@ -4731,19 +4731,19 @@
       <c r="O93" s="15"/>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="67" t="s">
+      <c r="A94" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="78" t="s">
+      <c r="B94" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C94" s="90"/>
-      <c r="D94" s="90"/>
-      <c r="E94" s="90"/>
-      <c r="F94" s="69" t="s">
+      <c r="C94" s="61"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="61"/>
+      <c r="F94" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="G94" s="69"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="30"/>
       <c r="I94" s="31"/>
       <c r="J94" s="12"/>
@@ -4754,7 +4754,7 @@
       <c r="O94" s="12"/>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="68"/>
+      <c r="A95" s="51"/>
       <c r="B95" s="13" t="s">
         <v>10</v>
       </c>
@@ -4767,8 +4767,8 @@
       <c r="E95" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="69"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
       <c r="H95" s="30"/>
       <c r="I95" s="23"/>
       <c r="J95" s="12"/>
@@ -4790,10 +4790,10 @@
       <c r="E96" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="F96" s="54">
+      <c r="F96" s="84">
         <v>3.5</v>
       </c>
-      <c r="G96" s="55"/>
+      <c r="G96" s="85"/>
       <c r="H96" s="30"/>
       <c r="I96" s="23"/>
       <c r="J96" s="12"/>
@@ -4815,8 +4815,8 @@
       <c r="E97" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="F97" s="56"/>
-      <c r="G97" s="57"/>
+      <c r="F97" s="86"/>
+      <c r="G97" s="87"/>
       <c r="H97" s="30"/>
       <c r="I97" s="23"/>
       <c r="J97" s="12"/>
@@ -4838,8 +4838,8 @@
       <c r="E98" s="40" t="s">
         <v>356</v>
       </c>
-      <c r="F98" s="56"/>
-      <c r="G98" s="57"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="87"/>
       <c r="H98" s="30"/>
       <c r="I98" s="23"/>
       <c r="J98" s="12"/>
@@ -4861,8 +4861,8 @@
       <c r="E99" s="40" t="s">
         <v>357</v>
       </c>
-      <c r="F99" s="56"/>
-      <c r="G99" s="57"/>
+      <c r="F99" s="86"/>
+      <c r="G99" s="87"/>
       <c r="H99" s="31"/>
       <c r="I99" s="26"/>
       <c r="J99" s="12"/>
@@ -4884,8 +4884,8 @@
       <c r="E100" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="F100" s="56"/>
-      <c r="G100" s="57"/>
+      <c r="F100" s="86"/>
+      <c r="G100" s="87"/>
       <c r="H100" s="31"/>
       <c r="I100" s="26"/>
       <c r="J100" s="12"/>
@@ -4907,8 +4907,8 @@
       <c r="E101" s="40" t="s">
         <v>359</v>
       </c>
-      <c r="F101" s="56"/>
-      <c r="G101" s="57"/>
+      <c r="F101" s="86"/>
+      <c r="G101" s="87"/>
       <c r="H101" s="31"/>
       <c r="I101" s="26"/>
       <c r="J101" s="12"/>
@@ -4930,8 +4930,8 @@
       <c r="E102" s="40" t="s">
         <v>360</v>
       </c>
-      <c r="F102" s="56"/>
-      <c r="G102" s="57"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="87"/>
       <c r="H102" s="31"/>
       <c r="I102" s="26"/>
       <c r="J102" s="12"/>
@@ -4953,8 +4953,8 @@
       <c r="E103" s="40" t="s">
         <v>361</v>
       </c>
-      <c r="F103" s="56"/>
-      <c r="G103" s="57"/>
+      <c r="F103" s="86"/>
+      <c r="G103" s="87"/>
       <c r="H103" s="31"/>
       <c r="I103" s="26"/>
       <c r="J103" s="12"/>
@@ -4976,8 +4976,8 @@
       <c r="E104" s="40" t="s">
         <v>362</v>
       </c>
-      <c r="F104" s="58"/>
-      <c r="G104" s="59"/>
+      <c r="F104" s="88"/>
+      <c r="G104" s="89"/>
       <c r="H104" s="31"/>
       <c r="I104" s="26"/>
       <c r="J104" s="12"/>
@@ -5029,19 +5029,19 @@
         <v>22</v>
       </c>
       <c r="B108" s="45"/>
-      <c r="C108" s="69" t="s">
+      <c r="C108" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D108" s="69"/>
-      <c r="E108" s="69"/>
+      <c r="D108" s="58"/>
+      <c r="E108" s="58"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
     </row>
     <row r="109" spans="1:11" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="89">
+      <c r="A109" s="59">
         <v>94.8</v>
       </c>
-      <c r="B109" s="89"/>
+      <c r="B109" s="59"/>
       <c r="C109" s="45">
         <v>250</v>
       </c>
@@ -5092,27 +5092,27 @@
       <c r="K112" s="15"/>
     </row>
     <row r="113" spans="1:15" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="46" t="s">
+      <c r="A113" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B113" s="46"/>
+      <c r="B113" s="80"/>
       <c r="C113" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D113" s="47" t="s">
+      <c r="D113" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="47"/>
+      <c r="E113" s="81"/>
       <c r="F113" s="37" t="s">
         <v>128</v>
       </c>
       <c r="G113" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="H113" s="47" t="s">
+      <c r="H113" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="I113" s="47"/>
+      <c r="I113" s="81"/>
     </row>
     <row r="114" spans="1:15" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="15"/>
@@ -5633,25 +5633,88 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="H46:I47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:C31"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="H52:I53"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="H73:I74"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="H113:I113"/>
+    <mergeCell ref="F80:G90"/>
+    <mergeCell ref="F96:G104"/>
+    <mergeCell ref="A57:I57"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="H69:I70"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="H63:I64"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H54:I55"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="H65:I66"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="H59:I60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="H61:I62"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="H67:I68"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="H71:I72"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A10:C10"/>
     <mergeCell ref="C109:E109"/>
     <mergeCell ref="B78:E78"/>
     <mergeCell ref="F78:G79"/>
@@ -5676,88 +5739,25 @@
     <mergeCell ref="B59:C60"/>
     <mergeCell ref="D59:G59"/>
     <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="H54:I55"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="H65:I66"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="H59:I60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="H61:I62"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="H67:I68"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="H113:I113"/>
-    <mergeCell ref="F80:G90"/>
-    <mergeCell ref="F96:G104"/>
-    <mergeCell ref="A57:I57"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="H69:I70"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="H63:I64"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="H73:I74"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="H46:I47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:C31"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="H52:I53"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="H40:I41"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.31496062992125984" top="0.74803149606299213" bottom="0.75181159420289856" header="0.31496062992125984" footer="0.31496062992125984"/>
